--- a/Code/Evaluation/XGBoost_Classifier_Predictions_Individual_Features_PCA_Classification_Report.xlsx
+++ b/Code/Evaluation/XGBoost_Classifier_Predictions_Individual_Features_PCA_Classification_Report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.915057915057915</v>
+        <v>0.926829268292683</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8810408921933086</v>
+        <v>0.8685714285714285</v>
       </c>
       <c r="E2" t="n">
         <v>279</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9207317073170732</v>
+        <v>0.9146341463414634</v>
       </c>
       <c r="C3" t="n">
-        <v>0.798941798941799</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8555240793201134</v>
+        <v>0.8498583569405099</v>
       </c>
       <c r="E3" t="n">
         <v>189</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8878281622911695</v>
+        <v>0.8894230769230769</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8435374149659864</v>
+        <v>0.8390022675736961</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8651162790697675</v>
+        <v>0.8634772462077013</v>
       </c>
       <c r="E4" t="n">
         <v>441</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8531684698608965</v>
+        <v>0.8386123680241327</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9517241379310345</v>
+        <v>0.9586206896551724</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8997555012224939</v>
+        <v>0.8946098149637973</v>
       </c>
       <c r="E5" t="n">
         <v>580</v>
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8811282740094023</v>
+        <v>0.8757555406312961</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8811282740094023</v>
+        <v>0.8757555406312961</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8811282740094023</v>
+        <v>0.8757555406312961</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8811282740094023</v>
+        <v>0.8757555406312961</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8941965636317636</v>
+        <v>0.892374714895339</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8609164293575545</v>
+        <v>0.8521195129887328</v>
       </c>
       <c r="D7" t="n">
-        <v>0.875359187951421</v>
+        <v>0.8691292116708593</v>
       </c>
       <c r="E7" t="n">
         <v>1489</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8836060329575627</v>
+        <v>0.8798401409598853</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8811282740094023</v>
+        <v>0.8757555406312961</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8803753725266946</v>
+        <v>0.8748299639286661</v>
       </c>
       <c r="E8" t="n">
         <v>1489</v>
